--- a/FinalQA Project/Users.xlsx
+++ b/FinalQA Project/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\source\repos\FinalQA Project\FinalQA Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Source\Repos\FinalQA Project\FinalQA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873AF632-6245-4DD3-8EE5-67FBA22F84E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE586986-01D8-4C5F-BCFD-E4B50DF6FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3288" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3636" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/FinalQA Project/Users.xlsx
+++ b/FinalQA Project/Users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Source\Repos\FinalQA Project\FinalQA Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\source\repos\FinalQA Project\FinalQA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE586986-01D8-4C5F-BCFD-E4B50DF6FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280740C1-9081-4FC9-BBD4-3849E9BAB604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3636" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,12 +375,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.19921875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/FinalQA Project/Users.xlsx
+++ b/FinalQA Project/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\source\repos\FinalQA Project\FinalQA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280740C1-9081-4FC9-BBD4-3849E9BAB604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE64E10-7C29-4D7F-A066-FC959DEA9D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3636" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>aaaaa1</t>
+  </si>
+  <si>
+    <t>a123123!</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -435,6 +441,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123123123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FinalQA Project/Users.xlsx
+++ b/FinalQA Project/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\source\repos\FinalQA Project\FinalQA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE64E10-7C29-4D7F-A066-FC959DEA9D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF42C54-8D4D-411A-BB3C-8F74A3FF2E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3636" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3984" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/FinalQA Project/Users.xlsx
+++ b/FinalQA Project/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\source\repos\FinalQA Project\FinalQA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF42C54-8D4D-411A-BB3C-8F74A3FF2E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723580C5-AC8F-4B97-A91C-5B9FAEDA26AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3984" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4332" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -33,28 +33,19 @@
     <t>Password</t>
   </si>
   <si>
-    <t>aaaaaa</t>
-  </si>
-  <si>
-    <t>123123a!</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>aaaaaa2</t>
-  </si>
-  <si>
-    <t>aaaaaa1</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>aaaaa1</t>
-  </si>
-  <si>
-    <t>a123123!</t>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>123123!a</t>
   </si>
 </sst>
 </file>
@@ -375,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -397,18 +388,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>123123123</v>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -416,39 +407,9 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>123123123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>123123123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
         <v>123123123</v>
       </c>
     </row>
